--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H2">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I2">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J2">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q2">
-        <v>181.5767302327777</v>
+        <v>236.73680146006</v>
       </c>
       <c r="R2">
-        <v>181.5767302327777</v>
+        <v>946.9472058402401</v>
       </c>
       <c r="S2">
-        <v>0.02558033936231528</v>
+        <v>0.0272599397466787</v>
       </c>
       <c r="T2">
-        <v>0.02558033936231528</v>
+        <v>0.01809547515636572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H3">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I3">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J3">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N3">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P3">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q3">
-        <v>0.9674331635817062</v>
+        <v>1.735634553986667</v>
       </c>
       <c r="R3">
-        <v>0.9674331635817062</v>
+        <v>10.41380732392</v>
       </c>
       <c r="S3">
-        <v>0.0001362909696801612</v>
+        <v>0.0001998560978780156</v>
       </c>
       <c r="T3">
-        <v>0.0001362909696801612</v>
+        <v>0.000199000314432488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H4">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I4">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J4">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N4">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O4">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P4">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q4">
-        <v>65.93682570493979</v>
+        <v>0.8578878376750002</v>
       </c>
       <c r="R4">
-        <v>65.93682570493979</v>
+        <v>5.147327026050001</v>
       </c>
       <c r="S4">
-        <v>0.009289110867036184</v>
+        <v>9.878468670775905E-05</v>
       </c>
       <c r="T4">
-        <v>0.009289110867036184</v>
+        <v>9.836169085997798E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>241.63529366561</v>
+        <v>15.719429</v>
       </c>
       <c r="H5">
-        <v>241.63529366561</v>
+        <v>31.438858</v>
       </c>
       <c r="I5">
-        <v>0.5961879484068979</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J5">
-        <v>0.5961879484068979</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N5">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O5">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P5">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q5">
-        <v>3092.460109912119</v>
+        <v>78.13366287574469</v>
       </c>
       <c r="R5">
-        <v>3092.460109912119</v>
+        <v>468.8019772544681</v>
       </c>
       <c r="S5">
-        <v>0.435662537675187</v>
+        <v>0.008996991296004505</v>
       </c>
       <c r="T5">
-        <v>0.435662537675187</v>
+        <v>0.00895846619573273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H6">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I6">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J6">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N6">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O6">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P6">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q6">
-        <v>16.47649709049805</v>
+        <v>3860.279692800601</v>
       </c>
       <c r="R6">
-        <v>16.47649709049805</v>
+        <v>23161.6781568036</v>
       </c>
       <c r="S6">
-        <v>0.002321191633624081</v>
+        <v>0.4445062667995254</v>
       </c>
       <c r="T6">
-        <v>0.002321191633624081</v>
+        <v>0.4426028917782016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H7">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I7">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J7">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64741635977894</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N7">
-        <v>4.64741635977894</v>
+        <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.2653596395580149</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P7">
-        <v>0.2653596395580149</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q7">
-        <v>1122.979816881544</v>
+        <v>28.3016192732</v>
       </c>
       <c r="R7">
-        <v>1122.979816881544</v>
+        <v>254.7145734588</v>
       </c>
       <c r="S7">
-        <v>0.1582042190980868</v>
+        <v>0.003258895242998511</v>
       </c>
       <c r="T7">
-        <v>0.1582042190980868</v>
+        <v>0.004867410989293973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.486059389495039</v>
+        <v>256.32429</v>
       </c>
       <c r="H8">
-        <v>0.486059389495039</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I8">
-        <v>0.001199256722107724</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J8">
-        <v>0.001199256722107724</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7980480955388</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N8">
-        <v>12.7980480955388</v>
+        <v>0.163725</v>
       </c>
       <c r="O8">
-        <v>0.7307469713860226</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P8">
-        <v>0.7307469713860226</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q8">
-        <v>6.220611444045736</v>
+        <v>13.98889812675</v>
       </c>
       <c r="R8">
-        <v>6.220611444045736</v>
+        <v>125.90008314075</v>
       </c>
       <c r="S8">
-        <v>0.0008763532175945479</v>
+        <v>0.001610803718330912</v>
       </c>
       <c r="T8">
-        <v>0.0008763532175945479</v>
+        <v>0.002405859389633365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.486059389495039</v>
+        <v>256.32429</v>
       </c>
       <c r="H9">
-        <v>0.486059389495039</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I9">
-        <v>0.001199256722107724</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J9">
-        <v>0.001199256722107724</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0681874606997571</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N9">
-        <v>0.0681874606997571</v>
+        <v>14.911546</v>
       </c>
       <c r="O9">
-        <v>0.003893389055962381</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P9">
-        <v>0.003893389055962381</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q9">
-        <v>0.0331431555189409</v>
+        <v>1274.06381375078</v>
       </c>
       <c r="R9">
-        <v>0.0331431555189409</v>
+        <v>11466.57432375702</v>
       </c>
       <c r="S9">
-        <v>4.669172997143529E-06</v>
+        <v>0.1467068177911891</v>
       </c>
       <c r="T9">
-        <v>4.669172997143529E-06</v>
+        <v>0.2191179291986554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.486059389495039</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H10">
-        <v>0.486059389495039</v>
+        <v>0.856525</v>
       </c>
       <c r="I10">
-        <v>0.001199256722107724</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J10">
-        <v>0.001199256722107724</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64741635977894</v>
+        <v>15.06014</v>
       </c>
       <c r="N10">
-        <v>4.64741635977894</v>
+        <v>30.12028</v>
       </c>
       <c r="O10">
-        <v>0.2653596395580149</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P10">
-        <v>0.2653596395580149</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q10">
-        <v>2.258920358563408</v>
+        <v>4.299795471166666</v>
       </c>
       <c r="R10">
-        <v>2.258920358563408</v>
+        <v>25.798772827</v>
       </c>
       <c r="S10">
-        <v>0.0003182343315160319</v>
+        <v>0.0004951159462497857</v>
       </c>
       <c r="T10">
-        <v>0.0003182343315160319</v>
+        <v>0.0004929958606736335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>24.1362313837129</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H11">
-        <v>24.1362313837129</v>
+        <v>0.856525</v>
       </c>
       <c r="I11">
-        <v>0.05955144239335908</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J11">
-        <v>0.05955144239335908</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7980480955388</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N11">
-        <v>12.7980480955388</v>
+        <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.7307469713860226</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P11">
-        <v>0.7307469713860226</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q11">
-        <v>308.8966500938107</v>
+        <v>0.03152392677777777</v>
       </c>
       <c r="R11">
-        <v>308.8966500938107</v>
+        <v>0.283715341</v>
       </c>
       <c r="S11">
-        <v>0.04351703617061634</v>
+        <v>3.62993982870852E-06</v>
       </c>
       <c r="T11">
-        <v>0.04351703617061634</v>
+        <v>5.42159464950307E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>24.1362313837129</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H12">
-        <v>24.1362313837129</v>
+        <v>0.856525</v>
       </c>
       <c r="I12">
-        <v>0.05955144239335908</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J12">
-        <v>0.05955144239335908</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0681874606997571</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N12">
-        <v>0.0681874606997571</v>
+        <v>0.163725</v>
       </c>
       <c r="O12">
-        <v>0.003893389055962381</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P12">
-        <v>0.003893389055962381</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q12">
-        <v>1.645788328917168</v>
+        <v>0.01558161729166667</v>
       </c>
       <c r="R12">
-        <v>1.645788328917168</v>
+        <v>0.140234555625</v>
       </c>
       <c r="S12">
-        <v>0.0002318569340810784</v>
+        <v>1.794203292039919E-06</v>
       </c>
       <c r="T12">
-        <v>0.0002318569340810784</v>
+        <v>2.679780775238167E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>24.1362313837129</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H13">
-        <v>24.1362313837129</v>
+        <v>0.856525</v>
       </c>
       <c r="I13">
-        <v>0.05955144239335908</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J13">
-        <v>0.05955144239335908</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.64741635977894</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N13">
-        <v>4.64741635977894</v>
+        <v>14.911546</v>
       </c>
       <c r="O13">
-        <v>0.2653596395580149</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P13">
-        <v>0.2653596395580149</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q13">
-        <v>112.1711165960772</v>
+        <v>1.419123548627778</v>
       </c>
       <c r="R13">
-        <v>112.1711165960772</v>
+        <v>12.77211193765</v>
       </c>
       <c r="S13">
-        <v>0.01580254928866165</v>
+        <v>0.0001634102606358509</v>
       </c>
       <c r="T13">
-        <v>0.01580254928866165</v>
+        <v>0.0002440658072980888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.855103655737</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H14">
-        <v>124.855103655737</v>
+        <v>1.720924</v>
       </c>
       <c r="I14">
-        <v>0.3080556112786038</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J14">
-        <v>0.3080556112786038</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N14">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O14">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P14">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q14">
-        <v>1597.901621559604</v>
+        <v>8.639118789786666</v>
       </c>
       <c r="R14">
-        <v>1597.901621559604</v>
+        <v>51.83471273872</v>
       </c>
       <c r="S14">
-        <v>0.2251107049603096</v>
+        <v>0.0009947834735518125</v>
       </c>
       <c r="T14">
-        <v>0.2251107049603096</v>
+        <v>0.0009905238125377683</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.855103655737</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H15">
-        <v>124.855103655737</v>
+        <v>1.720924</v>
       </c>
       <c r="I15">
-        <v>0.3080556112786038</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J15">
-        <v>0.3080556112786038</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N15">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P15">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q15">
-        <v>8.513552473689666</v>
+        <v>0.0633376517511111</v>
       </c>
       <c r="R15">
-        <v>8.513552473689666</v>
+        <v>0.57003886576</v>
       </c>
       <c r="S15">
-        <v>0.001199380345579917</v>
+        <v>7.293249548793535E-06</v>
       </c>
       <c r="T15">
-        <v>0.001199380345579917</v>
+        <v>1.089302980135013E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5736413333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.720924</v>
+      </c>
+      <c r="I16">
+        <v>0.001334004368972754</v>
+      </c>
+      <c r="J16">
+        <v>0.00149717634078867</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.163725</v>
+      </c>
+      <c r="O16">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P16">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q16">
+        <v>0.03130647576666667</v>
+      </c>
+      <c r="R16">
+        <v>0.2817582819</v>
+      </c>
+      <c r="S16">
+        <v>3.604900623041365E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.384196667751632E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5736413333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.720924</v>
+      </c>
+      <c r="I17">
+        <v>0.001334004368972754</v>
+      </c>
+      <c r="J17">
+        <v>0.00149717634078867</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N17">
+        <v>14.911546</v>
+      </c>
+      <c r="O17">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P17">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q17">
+        <v>2.851293043167112</v>
+      </c>
+      <c r="R17">
+        <v>25.661637388504</v>
+      </c>
+      <c r="S17">
+        <v>0.0003283227452491066</v>
+      </c>
+      <c r="T17">
+        <v>0.0004903753017817999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>32.233823</v>
+      </c>
+      <c r="H18">
+        <v>96.701469</v>
+      </c>
+      <c r="I18">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J18">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.06014</v>
+      </c>
+      <c r="N18">
+        <v>30.12028</v>
+      </c>
+      <c r="O18">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P18">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q18">
+        <v>485.44588711522</v>
+      </c>
+      <c r="R18">
+        <v>2912.67532269132</v>
+      </c>
+      <c r="S18">
+        <v>0.05589847269802904</v>
+      </c>
+      <c r="T18">
+        <v>0.05565911554018819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>32.233823</v>
+      </c>
+      <c r="H19">
+        <v>96.701469</v>
+      </c>
+      <c r="I19">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J19">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.33124</v>
+      </c>
+      <c r="O19">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P19">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q19">
+        <v>3.559043843506666</v>
+      </c>
+      <c r="R19">
+        <v>32.03139459156</v>
+      </c>
+      <c r="S19">
+        <v>0.0004098193442313095</v>
+      </c>
+      <c r="T19">
+        <v>0.0006120967478234576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>32.233823</v>
+      </c>
+      <c r="H20">
+        <v>96.701469</v>
+      </c>
+      <c r="I20">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J20">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.163725</v>
+      </c>
+      <c r="O20">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P20">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q20">
+        <v>1.759160890225</v>
+      </c>
+      <c r="R20">
+        <v>15.832448012025</v>
+      </c>
+      <c r="S20">
+        <v>0.0002025651253902643</v>
+      </c>
+      <c r="T20">
+        <v>0.0003025466128408272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>32.233823</v>
+      </c>
+      <c r="H21">
+        <v>96.701469</v>
+      </c>
+      <c r="I21">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J21">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.911546</v>
+      </c>
+      <c r="O21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q21">
+        <v>160.2187114734527</v>
+      </c>
+      <c r="R21">
+        <v>1441.968403261074</v>
+      </c>
+      <c r="S21">
+        <v>0.01844897960148233</v>
+      </c>
+      <c r="T21">
+        <v>0.02755497165686478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>124.855103655737</v>
-      </c>
-      <c r="H16">
-        <v>124.855103655737</v>
-      </c>
-      <c r="I16">
-        <v>0.3080556112786038</v>
-      </c>
-      <c r="J16">
-        <v>0.3080556112786038</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="N16">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="O16">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="P16">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="Q16">
-        <v>580.2536513315674</v>
-      </c>
-      <c r="R16">
-        <v>580.2536513315674</v>
-      </c>
-      <c r="S16">
-        <v>0.08174552597271424</v>
-      </c>
-      <c r="T16">
-        <v>0.08174552597271424</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>124.877892</v>
+      </c>
+      <c r="H22">
+        <v>249.755784</v>
+      </c>
+      <c r="I22">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J22">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.06014</v>
+      </c>
+      <c r="N22">
+        <v>30.12028</v>
+      </c>
+      <c r="O22">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P22">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q22">
+        <v>1880.67853642488</v>
+      </c>
+      <c r="R22">
+        <v>7522.71414569952</v>
+      </c>
+      <c r="S22">
+        <v>0.216557726849509</v>
+      </c>
+      <c r="T22">
+        <v>0.1437536180395179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>124.877892</v>
+      </c>
+      <c r="H23">
+        <v>249.755784</v>
+      </c>
+      <c r="I23">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J23">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.33124</v>
+      </c>
+      <c r="O23">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P23">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q23">
+        <v>13.78818431536</v>
+      </c>
+      <c r="R23">
+        <v>82.72910589215999</v>
+      </c>
+      <c r="S23">
+        <v>0.001587691779793799</v>
+      </c>
+      <c r="T23">
+        <v>0.001580893286497002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>124.877892</v>
+      </c>
+      <c r="H24">
+        <v>249.755784</v>
+      </c>
+      <c r="I24">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J24">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.163725</v>
+      </c>
+      <c r="O24">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P24">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q24">
+        <v>6.8152109559</v>
+      </c>
+      <c r="R24">
+        <v>40.8912657354</v>
+      </c>
+      <c r="S24">
+        <v>0.000784762820452662</v>
+      </c>
+      <c r="T24">
+        <v>0.0007814024674910086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>124.877892</v>
+      </c>
+      <c r="H25">
+        <v>249.755784</v>
+      </c>
+      <c r="I25">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J25">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.911546</v>
+      </c>
+      <c r="O25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q25">
+        <v>620.7074769803442</v>
+      </c>
+      <c r="R25">
+        <v>3724.244861882064</v>
+      </c>
+      <c r="S25">
+        <v>0.07147367168281943</v>
+      </c>
+      <c r="T25">
+        <v>0.07116762155141658</v>
       </c>
     </row>
   </sheetData>
